--- a/medicine/Enfance/Arthur_et_la_Cité_interdite/Arthur_et_la_Cité_interdite.xlsx
+++ b/medicine/Enfance/Arthur_et_la_Cité_interdite/Arthur_et_la_Cité_interdite.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Arthur_et_la_Cit%C3%A9_interdite</t>
+          <t>Arthur_et_la_Cité_interdite</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Arthur et la Cité interdite est le deuxième tome de la série de livres Arthur et les Minimoys.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Arthur_et_la_Cit%C3%A9_interdite</t>
+          <t>Arthur_et_la_Cité_interdite</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les péripéties d'Arthur, Selenia et Bétamèche se continuent sur toute l'étendue des Sept Terres à la recherche du grand-père d'Arthur. Lui seul sait où se trouve le trésor qui permettra à son petit-fils de déjouer les plans de Davido. Mais Maltazard le Maudit va faire tout son possible pour empêcher nos trois héros d'atteindre leur but. Sera-t-il possible à Arthur de trouver son grand-père à temps, de conquérir le cœur de la princesse Selenia et de garder sain et sauf le peuple des Minimoys ?
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Arthur_et_la_Cit%C3%A9_interdite</t>
+          <t>Arthur_et_la_Cité_interdite</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Adaptation cinématographique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le 1er tome et Arthur et la Cité interdite ont été combinés et adaptés au cinéma par Luc Besson dans Arthur et les Minimoys (2006), premier film d'une trilogie.
  Portail de la littérature française   Portail de la fantasy et du fantastique   Portail des années 2000   Portail de la littérature d’enfance et de jeunesse                  </t>
